--- a/GL100_Script_PostJournals_21B.xlsx
+++ b/GL100_Script_PostJournals_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1512EA0-B033-40D1-B7AE-674DDC12F2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BED047-41A7-4CE5-95FA-83E83342BCBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PostJournals" sheetId="30" r:id="rId1"/>
@@ -18,16 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PostJournals!$A$1:$N$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PostJournals!$A$1:$N$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="314">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -544,12 +542,6 @@
     <t>JournalName</t>
   </si>
   <si>
-    <t>Clicked on JournalName</t>
-  </si>
-  <si>
-    <t>Click on JournalName</t>
-  </si>
-  <si>
     <t>//input[contains(@id,'ap1:queryP:value10::content')]</t>
   </si>
   <si>
@@ -559,9 +551,6 @@
     <t>Step 21</t>
   </si>
   <si>
-    <t>Click on EnterBatch</t>
-  </si>
-  <si>
     <t>//button[contains(@id,'pt1:ap1:queryP::mode')]</t>
   </si>
   <si>
@@ -589,9 +578,6 @@
     <t>JournalName entered</t>
   </si>
   <si>
-    <t>Clicked on EnterBatch</t>
-  </si>
-  <si>
     <t>JournalBatchAcctPeriod</t>
   </si>
   <si>
@@ -709,12 +695,6 @@
     <t>VerifyText</t>
   </si>
   <si>
-    <t>Verified Journal Status</t>
-  </si>
-  <si>
-    <t>Verify Status</t>
-  </si>
-  <si>
     <t>Step 55</t>
   </si>
   <si>
@@ -745,9 +725,6 @@
     <t>Click on OK</t>
   </si>
   <si>
-    <t>Posted</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -859,30 +836,12 @@
     <t>ConfOk</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>ClickElementUsingJS</t>
-  </si>
-  <si>
     <t>Done2</t>
   </si>
   <si>
     <t>BatchStatus1</t>
   </si>
   <si>
-    <t>SavedSearch</t>
-  </si>
-  <si>
-    <t>Explicit wait for EnterBatch</t>
-  </si>
-  <si>
-    <t>Enter on EnterBatch</t>
-  </si>
-  <si>
-    <t>Accounting Period entered</t>
-  </si>
-  <si>
     <t>Step 27</t>
   </si>
   <si>
@@ -898,157 +857,125 @@
     <t>Step 64</t>
   </si>
   <si>
+    <t>//span[text()='ne']</t>
+  </si>
+  <si>
+    <t>//tr/td[5]/div/a/span[text()='Approve']</t>
+  </si>
+  <si>
+    <t>//tr/td[2][label[text()='Saved Search']]/select</t>
+  </si>
+  <si>
+    <t>//table[@summary='Search Results']/tbody/tr[1]/td[10]/span</t>
+  </si>
+  <si>
+    <t>PostYes</t>
+  </si>
+  <si>
+    <t>//button[text()='es']</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>//span[label[text()=' Accounting Period']]/input</t>
+  </si>
+  <si>
+    <t>AccPeriodSet</t>
+  </si>
+  <si>
+    <t>SendKey</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>//span[label[text()=' Batch Status']]/select</t>
+  </si>
+  <si>
+    <t>SetBatchStatus</t>
+  </si>
+  <si>
+    <t>Step 51</t>
+  </si>
+  <si>
+    <t>CHANGE HISTORY</t>
+  </si>
+  <si>
+    <t>MediumExplicitWait</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>Arrow Wait</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>Click on Arrow</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'clusters-right-nav')]</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes
+</t>
+  </si>
+  <si>
+    <t>Verify Text</t>
+  </si>
+  <si>
+    <t>Verified Text</t>
+  </si>
+  <si>
+    <t>VerifySearchJournalValidation</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'AT1:_ATp:t1:0:commandLink3')]</t>
+  </si>
+  <si>
+    <t>Step 32</t>
+  </si>
+  <si>
+    <t>Exists||Step 44-Step 45||Step 46-Step 47</t>
+  </si>
+  <si>
+    <t>ApproveJournal</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'2:0:MAnt2:2:pt1:ap1:ctb1')]</t>
+  </si>
+  <si>
     <t>Step 65</t>
   </si>
   <si>
-    <t>Step 66</t>
-  </si>
-  <si>
-    <t>Step 67</t>
-  </si>
-  <si>
-    <t>Step 68</t>
-  </si>
-  <si>
-    <t>Step 69</t>
-  </si>
-  <si>
-    <t>Step 70</t>
-  </si>
-  <si>
-    <t>Step 71</t>
-  </si>
-  <si>
-    <t>Step 72</t>
-  </si>
-  <si>
-    <t>Step 73</t>
-  </si>
-  <si>
-    <t>Step 74</t>
-  </si>
-  <si>
-    <t>Step 75</t>
-  </si>
-  <si>
-    <t>Step 76</t>
-  </si>
-  <si>
-    <t>Step 77</t>
-  </si>
-  <si>
-    <t>Step 78</t>
-  </si>
-  <si>
-    <t>Step 79</t>
-  </si>
-  <si>
-    <t>Step 80</t>
-  </si>
-  <si>
-    <t>Step 81</t>
-  </si>
-  <si>
-    <t>Step 82</t>
-  </si>
-  <si>
-    <t>Step 83</t>
-  </si>
-  <si>
-    <t>Step 84</t>
-  </si>
-  <si>
-    <t>Step 85</t>
-  </si>
-  <si>
-    <t>Step 86</t>
-  </si>
-  <si>
-    <t>Step 87</t>
-  </si>
-  <si>
-    <t>//span[text()='ne']</t>
-  </si>
-  <si>
-    <t>//tr/td[5]/div/a/span[text()='Approve']</t>
-  </si>
-  <si>
-    <t>//tr/td[2][label[text()='Saved Search']]/select</t>
-  </si>
-  <si>
-    <t>//table[@summary='Search Results']/tbody/tr[1]/td[10]/span</t>
-  </si>
-  <si>
-    <t>PostYes</t>
-  </si>
-  <si>
-    <t>//button[text()='es']</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>WaitForDuration</t>
-  </si>
-  <si>
-    <t>//span[label[text()=' Accounting Period']]/input</t>
-  </si>
-  <si>
-    <t>AccPeriodSet</t>
-  </si>
-  <si>
-    <t>SendKey</t>
-  </si>
-  <si>
-    <t>TAB</t>
-  </si>
-  <si>
-    <t>//span[label[text()=' Batch Status']]/select</t>
-  </si>
-  <si>
-    <t>SetBatchStatus</t>
-  </si>
-  <si>
-    <t>Step 51</t>
-  </si>
-  <si>
-    <t>SetBatchStatus2</t>
-  </si>
-  <si>
-    <t>Exists||Step 40-Step 41||Step 42-Step 43</t>
-  </si>
-  <si>
-    <t>CHANGE HISTORY</t>
-  </si>
-  <si>
-    <t>MediumExplicitWait</t>
-  </si>
-  <si>
-    <t>LongExplicitWait</t>
-  </si>
-  <si>
-    <t>LowWait</t>
-  </si>
-  <si>
-    <t>MediumWait</t>
-  </si>
-  <si>
-    <t>HighWait</t>
-  </si>
-  <si>
-    <t>HighestWait</t>
-  </si>
-  <si>
-    <t>Arrow Wait</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>Click on Arrow</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'clusters-right-nav')]</t>
+    <t>Check Condition</t>
+  </si>
+  <si>
+    <t>Exists||Step 49-Step 50||Step 51-Step 52</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +989,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1246,12 +1173,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -9479,7 +9400,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9493,13 +9414,12 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7828">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17331,297 +17251,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="148">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="119">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19156,10 +18786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N243"/>
+  <dimension ref="A1:N221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -19222,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -19252,7 +18882,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K2" s="5"/>
       <c r="M2" s="2" t="s">
@@ -19286,11 +18916,11 @@
         <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="K3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -19302,10 +18932,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
@@ -19324,7 +18954,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -19358,7 +18988,7 @@
       </c>
       <c r="K5" s="5"/>
       <c r="M5" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -19392,7 +19022,7 @@
       </c>
       <c r="K6" s="5"/>
       <c r="M6" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -19426,7 +19056,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -19456,11 +19086,11 @@
         <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="K8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -19487,13 +19117,11 @@
         <v>39</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -19501,10 +19129,10 @@
         <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
@@ -19513,34 +19141,32 @@
         <v>48</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
@@ -19549,23 +19175,21 @@
         <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>65</v>
@@ -19580,23 +19204,21 @@
         <v>48</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -19616,24 +19238,22 @@
         <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -19651,17 +19271,15 @@
         <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -19684,12 +19302,12 @@
         <v>72</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>114</v>
@@ -19716,15 +19334,15 @@
         <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>114</v>
@@ -19748,12 +19366,12 @@
         <v>51</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>114</v>
@@ -19780,15 +19398,15 @@
         <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>114</v>
@@ -19815,15 +19433,15 @@
         <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>114</v>
@@ -19847,12 +19465,12 @@
         <v>87</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>114</v>
@@ -19879,15 +19497,15 @@
         <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>114</v>
@@ -19911,12 +19529,12 @@
         <v>160</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>114</v>
@@ -19925,7 +19543,7 @@
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
@@ -19937,74 +19555,72 @@
         <v>48</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>168</v>
@@ -20013,402 +19629,402 @@
         <v>40</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" s="5"/>
+        <v>291</v>
+      </c>
       <c r="M25" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J26" s="2" t="s">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="K26" s="5"/>
       <c r="M26" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>212</v>
+        <v>108</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="K27" s="5"/>
       <c r="M27" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>183</v>
+        <v>115</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>291</v>
+      </c>
       <c r="M29" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J30" s="2" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="K30" s="5"/>
       <c r="M30" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>212</v>
+        <v>269</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K31" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="K31" s="5"/>
       <c r="M31" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>183</v>
+        <v>118</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>267</v>
+      <c r="G33" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K33" s="5"/>
+        <v>291</v>
+      </c>
       <c r="M33" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>212</v>
+        <v>119</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>317</v>
+        <v>26</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="K34" s="5"/>
       <c r="M34" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="K35" s="2"/>
       <c r="M35" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>47</v>
+        <v>307</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>94</v>
+        <v>24</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>328</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>47</v>
@@ -20420,219 +20036,227 @@
         <v>48</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K38" s="5"/>
+        <v>292</v>
+      </c>
       <c r="M38" s="2" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>212</v>
+        <v>141</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>317</v>
+        <v>219</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
       <c r="K39" s="2"/>
       <c r="M39" s="2" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>218</v>
+        <v>61</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>317</v>
+      <c r="H42" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="K42" s="5"/>
       <c r="M42" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>314</v>
+        <v>281</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>114</v>
@@ -20641,7 +20265,7 @@
         <v>146</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>47</v>
@@ -20653,21 +20277,21 @@
         <v>48</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>114</v>
@@ -20676,10 +20300,10 @@
         <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>26</v>
@@ -20688,15 +20312,15 @@
         <v>24</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>114</v>
@@ -20705,31 +20329,31 @@
         <v>157</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="K46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>114</v>
@@ -20738,40 +20362,39 @@
         <v>158</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>40</v>
+        <v>265</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>308</v>
+      </c>
       <c r="M47" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>47</v>
@@ -20783,33 +20406,33 @@
         <v>48</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>26</v>
@@ -20818,315 +20441,317 @@
         <v>24</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="K50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>113</v>
+        <v>202</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>328</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>64</v>
+        <v>265</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>317</v>
+        <v>48</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>291</v>
+      </c>
       <c r="M53" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>156</v>
+        <v>205</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>328</v>
+        <v>24</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>155</v>
+        <v>288</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>317</v>
+        <v>48</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K56" s="2"/>
+        <v>290</v>
+      </c>
       <c r="M56" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>47</v>
+        <v>207</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>328</v>
+        <v>24</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>220</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>47</v>
@@ -21137,34 +20762,34 @@
       <c r="G59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>87</v>
+      <c r="H59" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>221</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>26</v>
@@ -21172,61 +20797,59 @@
       <c r="G60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>87</v>
+      <c r="H60" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="K61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>170</v>
+        <v>223</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>26</v>
@@ -21234,69 +20857,66 @@
       <c r="G62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>277</v>
+      <c r="H62" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>26</v>
@@ -21305,62 +20925,66 @@
         <v>48</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>328</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="K64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>275</v>
+      <c r="G65" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="2"/>
       <c r="M65" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>26</v>
@@ -21369,887 +20993,223 @@
         <v>48</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="K66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>317</v>
+        <v>48</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>331</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="K67" s="2"/>
       <c r="M67" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>281</v>
+        <v>311</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K69" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="K69" s="2"/>
       <c r="M69" s="2" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K70" s="5"/>
-      <c r="M70" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="I71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="M71" s="2" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="I72" s="2"/>
+      <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K73" s="5"/>
-      <c r="M73" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="I73" s="2"/>
+      <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K74" s="5"/>
-      <c r="M74" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="I75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="M75" s="2" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="I76" s="2"/>
+      <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K77" s="5"/>
-      <c r="M77" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="I77" s="2"/>
+      <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="I78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="M78" s="2" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="M79" s="2" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="I80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="M80" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>236</v>
-      </c>
+    </row>
+    <row r="81" spans="9:11">
+      <c r="I81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="9:11">
+      <c r="I82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="9:11">
+      <c r="I83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="M83" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="84" spans="9:11">
+      <c r="I84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="9:11">
+      <c r="I85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="M85" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>329</v>
-      </c>
+    </row>
+    <row r="86" spans="9:11">
+      <c r="I86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="M86" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="87" spans="9:11">
+      <c r="I87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="M87" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>329</v>
-      </c>
+    </row>
+    <row r="88" spans="9:11">
+      <c r="I88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="M88" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>329</v>
-      </c>
+    </row>
+    <row r="89" spans="9:11">
+      <c r="I89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="M89" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="90" spans="9:11">
+      <c r="I90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="M90" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="91" spans="9:11">
+      <c r="I91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="M91" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+    </row>
+    <row r="92" spans="9:11">
       <c r="I92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="9:11">
       <c r="I93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="9:11">
       <c r="I94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="9:11">
       <c r="I95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="9:11">
       <c r="I96" s="2"/>
       <c r="K96" s="2"/>
     </row>
@@ -22701,401 +21661,240 @@
       <c r="I208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="9:11">
+    <row r="209" spans="1:11">
       <c r="I209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="9:11">
+    <row r="210" spans="1:11">
       <c r="I210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="9:11">
+    <row r="211" spans="1:11">
       <c r="I211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="9:11">
+    <row r="212" spans="1:11">
       <c r="I212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="9:11">
+    <row r="213" spans="1:11">
       <c r="I213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="9:11">
+    <row r="214" spans="1:11">
       <c r="I214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="9:11">
+    <row r="215" spans="1:11">
       <c r="I215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="9:11">
+    <row r="216" spans="1:11">
       <c r="I216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="9:11">
+    <row r="217" spans="1:11">
       <c r="I217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="9:11">
+    <row r="218" spans="1:11">
       <c r="I218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="9:11">
+    <row r="219" spans="1:11">
       <c r="I219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="9:11">
+    <row r="220" spans="1:11">
+      <c r="A220" s="4"/>
+      <c r="B220" s="6"/>
       <c r="I220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="9:11">
+    <row r="221" spans="1:11">
       <c r="I221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="9:11">
-      <c r="I222" s="2"/>
-      <c r="K222" s="2"/>
-    </row>
-    <row r="223" spans="9:11">
-      <c r="I223" s="2"/>
-      <c r="K223" s="2"/>
-    </row>
-    <row r="224" spans="9:11">
-      <c r="I224" s="2"/>
-      <c r="K224" s="2"/>
-    </row>
-    <row r="225" spans="9:11">
-      <c r="I225" s="2"/>
-      <c r="K225" s="2"/>
-    </row>
-    <row r="226" spans="9:11">
-      <c r="I226" s="2"/>
-      <c r="K226" s="2"/>
-    </row>
-    <row r="227" spans="9:11">
-      <c r="I227" s="2"/>
-      <c r="K227" s="2"/>
-    </row>
-    <row r="228" spans="9:11">
-      <c r="I228" s="2"/>
-      <c r="K228" s="2"/>
-    </row>
-    <row r="229" spans="9:11">
-      <c r="I229" s="2"/>
-      <c r="K229" s="2"/>
-    </row>
-    <row r="230" spans="9:11">
-      <c r="I230" s="2"/>
-      <c r="K230" s="2"/>
-    </row>
-    <row r="231" spans="9:11">
-      <c r="I231" s="2"/>
-      <c r="K231" s="2"/>
-    </row>
-    <row r="232" spans="9:11">
-      <c r="I232" s="2"/>
-      <c r="K232" s="2"/>
-    </row>
-    <row r="233" spans="9:11">
-      <c r="I233" s="2"/>
-      <c r="K233" s="2"/>
-    </row>
-    <row r="234" spans="9:11">
-      <c r="I234" s="2"/>
-      <c r="K234" s="2"/>
-    </row>
-    <row r="235" spans="9:11">
-      <c r="I235" s="2"/>
-      <c r="K235" s="2"/>
-    </row>
-    <row r="236" spans="9:11">
-      <c r="I236" s="2"/>
-      <c r="K236" s="2"/>
-    </row>
-    <row r="237" spans="9:11">
-      <c r="I237" s="2"/>
-      <c r="K237" s="2"/>
-    </row>
-    <row r="238" spans="9:11">
-      <c r="I238" s="2"/>
-      <c r="K238" s="2"/>
-    </row>
-    <row r="239" spans="9:11">
-      <c r="I239" s="2"/>
-      <c r="K239" s="2"/>
-    </row>
-    <row r="240" spans="9:11">
-      <c r="I240" s="2"/>
-      <c r="K240" s="2"/>
-    </row>
-    <row r="241" spans="1:11">
-      <c r="I241" s="2"/>
-      <c r="K241" s="2"/>
-    </row>
-    <row r="242" spans="1:11">
-      <c r="A242" s="4"/>
-      <c r="B242" s="6"/>
-      <c r="I242" s="2"/>
-      <c r="K242" s="2"/>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="I243" s="2"/>
-      <c r="K243" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H211:I211">
-    <cfRule type="duplicateValues" dxfId="147" priority="275"/>
+  <conditionalFormatting sqref="H189:I189">
+    <cfRule type="duplicateValues" dxfId="118" priority="322"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H211:I211">
-    <cfRule type="duplicateValues" dxfId="146" priority="276"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="277"/>
+  <conditionalFormatting sqref="H189:I189">
+    <cfRule type="duplicateValues" dxfId="117" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="144" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="143" priority="267"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="142" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="141" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="312"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="140" priority="238"/>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="112" priority="310"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="139" priority="237"/>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="111" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="duplicateValues" dxfId="110" priority="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="duplicateValues" dxfId="109" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="108" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="107" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="105" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="104" priority="248"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="103" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="102" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="100" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="99" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="98" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="96" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="duplicateValues" dxfId="95" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="duplicateValues" dxfId="94" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="92" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="91" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="duplicateValues" dxfId="90" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="duplicateValues" dxfId="89" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="duplicateValues" dxfId="88" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="86" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="85" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="duplicateValues" dxfId="83" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="duplicateValues" dxfId="82" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="duplicateValues" dxfId="80" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="duplicateValues" dxfId="79" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="duplicateValues" dxfId="77" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="duplicateValues" dxfId="76" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="duplicateValues" dxfId="74" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="duplicateValues" dxfId="73" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="duplicateValues" dxfId="71" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="duplicateValues" dxfId="70" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="68" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="67" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="138" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="137" priority="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="136" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="134" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="133" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="132" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="131" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="129" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="128" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="127" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="191"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="125" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="duplicateValues" dxfId="124" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="duplicateValues" dxfId="123" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="duplicateValues" dxfId="119" priority="137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="118" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="117" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="115" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="duplicateValues" dxfId="114" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="113" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="112" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="111" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="109" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="108" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="107" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="106" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="105" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="103" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="102" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="100" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="99" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="97" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="96" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="94" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="93" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="91" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="88" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="87" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="85" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="84" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="83" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="82" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="81" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="79" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="78" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="duplicateValues" dxfId="76" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="duplicateValues" dxfId="75" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="duplicateValues" dxfId="73" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="duplicateValues" dxfId="72" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="duplicateValues" dxfId="70" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="duplicateValues" dxfId="69" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="67" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="66" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="duplicateValues" dxfId="64" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="duplicateValues" dxfId="63" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="61" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="60" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="59" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="duplicateValues" dxfId="58" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="57" priority="36"/>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="duplicateValues" dxfId="64" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="56" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="55" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="54" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="56" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="53" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I211 I2:I3 I5 I8 I12 I14 I16 I18:I19 I21 I23:I24 I27:I28 I31:I32 I34 I36:I37 I39:I40 I42 I44 I46:I48 I50:I51 I53:I54 I56:I57 I59 I61:I62 I64 I66:I68 I71:I72 I75:I76 I78 I80:I82 I84 I86 I88:I89 I10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G66:G68 F78:G1048576 F27:G28 F34:G34 F29:F31 F32:G32 F25:F27 F77:F78 G75:G78 F71:G72 F73:F75 F76:G76 F43:G43 F1:G24 F33:F42 G31:G42 G44:G64 F44:F71" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" sqref="I189 I2:I3 I5 I8 I12 I14 I16 I18:I19 I21 I61:I62 I28:I29 I32:I33 I35 I10 I43:I44 I46 I48 I23:I25 I55:I56 I58:I59 I41 I64 I66:I67 I37 I50:I53" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F28:G29 F35:G35 F30:F32 F33:G33 F26:F28 F1:G25 G32:G37 F34:F37 F38:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -23106,17 +21905,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="68.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
@@ -23171,7 +21970,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -23277,13 +22076,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
@@ -23325,7 +22124,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
@@ -23381,7 +22180,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>26</v>
@@ -23409,7 +22208,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>26</v>
@@ -23423,7 +22222,7 @@
         <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -23507,7 +22306,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>26</v>
@@ -23557,13 +22356,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>26</v>
@@ -23571,13 +22370,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>26</v>
@@ -23585,13 +22384,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>26</v>
@@ -23599,13 +22398,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>26</v>
@@ -23613,13 +22412,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
@@ -23627,13 +22426,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>26</v>
@@ -23641,13 +22440,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>26</v>
@@ -23655,13 +22454,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>26</v>
@@ -23669,13 +22468,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>26</v>
@@ -23683,13 +22482,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
@@ -23697,13 +22496,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
@@ -23711,13 +22510,13 @@
     </row>
     <row r="43" spans="1:4" ht="12" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
@@ -23725,13 +22524,13 @@
     </row>
     <row r="44" spans="1:4" ht="12" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
@@ -23739,13 +22538,13 @@
     </row>
     <row r="45" spans="1:4" ht="12" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>26</v>
@@ -23753,13 +22552,13 @@
     </row>
     <row r="46" spans="1:4" ht="12" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
@@ -23767,13 +22566,13 @@
     </row>
     <row r="47" spans="1:4" ht="12" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
@@ -23781,13 +22580,13 @@
     </row>
     <row r="48" spans="1:4" ht="12" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>26</v>
@@ -23795,13 +22594,13 @@
     </row>
     <row r="49" spans="1:4" ht="12" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>26</v>
@@ -23809,13 +22608,13 @@
     </row>
     <row r="50" spans="1:4" ht="12" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>26</v>
@@ -23823,13 +22622,13 @@
     </row>
     <row r="51" spans="1:4" s="7" customFormat="1">
       <c r="A51" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>26</v>
@@ -23837,13 +22636,13 @@
     </row>
     <row r="52" spans="1:4" s="7" customFormat="1">
       <c r="A52" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>26</v>
@@ -23851,13 +22650,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>26</v>
@@ -23865,13 +22664,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
@@ -23879,13 +22678,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
@@ -23893,13 +22692,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
@@ -23907,13 +22706,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>26</v>
@@ -23921,13 +22720,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>26</v>
@@ -23935,13 +22734,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>26</v>
@@ -23949,15 +22748,43 @@
     </row>
     <row r="60" spans="1:4" s="7" customFormat="1">
       <c r="A60" s="4" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="7" customFormat="1">
+      <c r="A62" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -23965,10 +22792,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D42">
     <sortCondition ref="D13:D42"/>
   </sortState>
-  <conditionalFormatting sqref="A89:A1048576 A27:A33 A1 A41:A42 A58:A59 A61:A87">
+  <conditionalFormatting sqref="A89:A1048576 A27:A33 A1 A41:A42 A58:A59 A61 A64:A87">
     <cfRule type="duplicateValues" dxfId="49" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:A1048576 A27:A33 A1 A41:A42 A58:A59 A61:A87">
+  <conditionalFormatting sqref="A89:A1048576 A27:A33 A1 A41:A42 A58:A59 A61 A64:A87">
     <cfRule type="duplicateValues" dxfId="48" priority="70"/>
     <cfRule type="duplicateValues" dxfId="47" priority="71"/>
   </conditionalFormatting>
